--- a/DOM_Banner/output/dept_banner/Ricklie Julian_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Ricklie Julian_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Hematology/Oncology, Department of Medicine, George Washington (GW) University and GW Cancer Center, Washington, DC.; Division of Hematology/Oncology, Department of Medicine, University of Arizona (UA) College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Hematology and Medical Oncology, Emory University and Winship Cancer Institute, Atlanta, GA.; Biostatistics and Bioinformatics Shared Resource, UA Comprehensive Cancer Center, Tucson, AZ.; Department of Epidemiology and Biostatistics, UA Mel and Enid Zuckerman College of Public Health, Tucson, AZ.; Department of Hematology/Oncology, Temple-Fox Chase Cancer Center, Philadelphia, PA.; Division of Hematology/Oncology, Department of Medicine, Medical University of South Carolina (MUSC) College of Medicine and MUSC Hollings Cancer Center, Charleston, SC.; Division of Oncology, Department of Medicine, Yale School of Medicine and Yale Cancer Center, New Haven, CT.; Department of Head and Neck-Endocrine Oncology, Moffitt Cancer Center, Tampa, FL.; Division of Hematology/Oncology, Department of Medicine, University of Arizona (UA) College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Otolaryngology-Head and Neck Surgery, UA College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Otolaryngology-Head and Neck Surgery, UA College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Otolaryngology-Head and Neck Surgery, UA College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Hematology and Medical Oncology, Emory University and Winship Cancer Institute, Atlanta, GA.; Department of Hematology/Oncology, Temple-Fox Chase Cancer Center, Philadelphia, PA.; Division of Oncology, Department of Medicine, Yale School of Medicine and Yale Cancer Center, New Haven, CT.; Division of Hematology/Oncology, Department of Medicine, University of Arizona (UA) College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Otolaryngology-Head and Neck Surgery, UA College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Pathology, UA College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Biostatistics and Bioinformatics Shared Resource, UA Comprehensive Cancer Center, Tucson, AZ.; Division of Hematology/Oncology, Department of Medicine, University of Arizona (UA) College of Medicine-Tucson and UA Comprehensive Cancer Center, Tucson, AZ.; Department of Head and Neck-Endocrine Oncology, Moffitt Cancer Center, Tampa, FL.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4361222620</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Randomized Phase II Trial of Ficlatuzumab With or Without Cetuximab in Pan-Refractory, Recurrent/Metastatic Head and Neck Cancer</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.22.01994</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36977289</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.22.01994</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Moffitt Cancer Center, Tampa, FL; Stanford Cancer Center, Stanford, CA; Washington University School of Medicine, St. Louis, MO; University of Washington, Seattle, WA; Massachusetts General Hospital, Boston, MA; Vanderbilt University Medical Center, Vanderbilt-Ingram Cancer Center, Nashville, TN; Yale Cancer Center, Yale School of Medicine, New Haven, CT; University of Texas MD Anderson Cancer Center, Houston, TX; University of Arizona Department of Neurology, Tucson, AZ; Emory University Winship Cancer Institute, Atlanta, GA; University of Michigan Health System Comprehensive Cancer Center, Ann Arbor, MI; Memorial Sloan Kettering Cancer Center, New York, NY; Johns Hopkins Medicine, Baltimore, MD; U.S. Oncology Research/Rocky Mountain Cancer Centers, Lone Tree, CO; George Washington University, Washington, DC; Merck &amp; Co, Inc., Rahway, NJ; Cue Biopharma, Boston, MA; Cue Biopharma, Boston, MA; Massachusetts General Hospital, Boston, MA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4379281505</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>A phase 1 dose-escalation and expansion study of CUE-101, a novel HPV16 E7-pHLA-IL2-Fc fusion protein, given as monotherapy and in combination with pembrolizumab in patients with recurrent/metastatic HPV16+ head and neck cancer.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.6013</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.16_suppl.6013</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Moffitt Cancer Center, Tampa, FL, USA; Siteman Cancer Center at Barnes-Jewish Hospital and Washington University School of Medicine, Saint Louis, MO, USA; Stanford University, Stanford, CA, USA; University of Washington School of Medicine, Seattle, WA, USA; Massachusetts General Hospital, Boston, MA, USA; Vanderbilt University Medical Center, Nashville, TN, USA; Barbara Ann Karmanos Cancer Institute, Detroit, MI, USA; Yale University School of Medicine, New Haven, CT, USA; The University of Texas MD Anderson Cancer Center, Houston, TX, USA; University of Arizona Cancer Center, Tucson, AZ, USA; Winship Cancer Institute of Emory University, Atlanta, GA, USA; University of Michigan Health System Comprehensive, Ann Arbor, MI, USA; Memorial Sloan Kettering Cancer Center, New York, NY, USA; Johns Hopkins, Baltimore, MD, USA; Rocky Mountain Cancer Center, Lone Tree, CO, USA; Affiliated Oncologists, LLC, Chicago Ridge, IL, USA; Gabrail Cancer Center, Canton, OH, USA; George Washington University Cancer Center, Washington, DC, USA; Merck and Co., Inc, Rahway, NJ, USA; Cue Biopharma, Boston, MA, USA; Cue Biopharma, Boston, MA, USA; Cue Biopharma, Boston, MA, USA; Cue Biopharma, Boston, MA, USA; Cue Biopharma, Boston, MA, USA; Massachusetts General Hospital/Harvard Medical School, Boston, MA, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388048325</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>674 A phase 1 dose-escalation and expansion study of CUE-101, given as monotherapy in 3L and in combination with pembrolizumab in 1L recurrent/metastatic HPV16+ head and neck cancer patients</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Regular and Young Investigator Award Abstracts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2023-sitc2023.0674</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2023-sitc2023.0674</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Massachusetts General Hospital, Boston, MA, USA; Florida Cancer Specialists, Sarasota, FL, USA; Sarah Cannon Research Institute, Nashville, TN, USA; Perlmutter Cancer Center at NYU Langone Health, New York, NY, USA; Hackensack University Medical Center, Hackensack, NJ, USA; George Washington University, Washington, DC, USA; Duke University Medical Center, Durham, NC, USA; University of Arizona Cancer Center, Tucson, AZ, USA; University of Arizona Cancer Center, Tucson, AZ, USA; The Cleveland Clinic Foundation, Cleveland, OH, USA; H. Lee Moffitt Cancer Center and Research Institute, Tampa, FL, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Moderna Inc., Cambridge, MA, USA; Sarah Cannon Research Institute, Nashville, TN, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4388076330</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1530 T-cell responses to individualized neoantigen therapy (INT) mRNA-4157 (V940) as monotherapy or in combination with pembrolizumab</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-10-31</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2023-sitc2023.1530</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/jitc-2023-sitc2023.1530</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
